--- a/data/trans_orig/SE_ADU-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Clase-trans_orig.xlsx
@@ -770,19 +770,19 @@
         <v>306680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>278765</v>
+        <v>278777</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332888</v>
+        <v>335340</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3929498413187613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3571817794142492</v>
+        <v>0.3571972108619445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.426530159157078</v>
+        <v>0.4296710157797426</v>
       </c>
     </row>
     <row r="5">
@@ -825,19 +825,19 @@
         <v>473777</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>447569</v>
+        <v>445117</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>501692</v>
+        <v>501680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6070501586812387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5734698408429221</v>
+        <v>0.5703289842202575</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6428182205857508</v>
+        <v>0.6428027891380556</v>
       </c>
     </row>
     <row r="6">
@@ -955,19 +955,19 @@
         <v>371865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>346684</v>
+        <v>342940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>400955</v>
+        <v>396503</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5033369872110075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4692530506083384</v>
+        <v>0.4641858278853014</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5427114562163138</v>
+        <v>0.5366855516210147</v>
       </c>
     </row>
     <row r="8">
@@ -1010,19 +1010,19 @@
         <v>366934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>337844</v>
+        <v>342296</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>392115</v>
+        <v>395859</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4966630127889926</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4572885437836863</v>
+        <v>0.4633144483789854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5307469493916616</v>
+        <v>0.5358141721146988</v>
       </c>
     </row>
     <row r="9">
@@ -1140,19 +1140,19 @@
         <v>167782</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144570</v>
+        <v>146638</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192291</v>
+        <v>191231</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2362556442784144</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2035702211565723</v>
+        <v>0.2064827000323333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2707670141068976</v>
+        <v>0.269274066611739</v>
       </c>
     </row>
     <row r="11">
@@ -1195,19 +1195,19 @@
         <v>542389</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>517880</v>
+        <v>518940</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>565601</v>
+        <v>563533</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7637443557215856</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7292329858931021</v>
+        <v>0.7307259333882609</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7964297788434277</v>
+        <v>0.7935172999676665</v>
       </c>
     </row>
     <row r="12">
@@ -1325,19 +1325,19 @@
         <v>714285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>674986</v>
+        <v>674479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>761911</v>
+        <v>758040</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3658087230118865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3456821415055882</v>
+        <v>0.3454225566764697</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3901995271340757</v>
+        <v>0.3882169621613906</v>
       </c>
     </row>
     <row r="14">
@@ -1380,19 +1380,19 @@
         <v>1238335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1190709</v>
+        <v>1194580</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1277634</v>
+        <v>1278141</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6341912769881134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6098004728659243</v>
+        <v>0.6117830378386095</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6543178584944118</v>
+        <v>0.6545774433235303</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>568752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>533904</v>
+        <v>539286</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>597657</v>
+        <v>598059</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6186744716124722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5807683818962145</v>
+        <v>0.5866223288332233</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6501172761993952</v>
+        <v>0.6505546635892131</v>
       </c>
     </row>
     <row r="17">
@@ -1565,19 +1565,19 @@
         <v>350555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321650</v>
+        <v>321248</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>385403</v>
+        <v>380021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3813255283875278</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3498827238006048</v>
+        <v>0.3494453364107864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4192316181037855</v>
+        <v>0.4133776711667767</v>
       </c>
     </row>
     <row r="18">
@@ -1695,19 +1695,19 @@
         <v>1248760</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1220128</v>
+        <v>1215413</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1277581</v>
+        <v>1277413</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8072345269348503</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7887263609707826</v>
+        <v>0.785678092859293</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8258657564661066</v>
+        <v>0.8257568094208757</v>
       </c>
     </row>
     <row r="20">
@@ -1750,19 +1750,19 @@
         <v>298200</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>269379</v>
+        <v>269547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>326832</v>
+        <v>331547</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1927654730651497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1741342435338934</v>
+        <v>0.1742431905791244</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2112736390292173</v>
+        <v>0.2143219071407072</v>
       </c>
     </row>
     <row r="21">
@@ -1880,19 +1880,19 @@
         <v>3378124</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3299736</v>
+        <v>3298183</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3455095</v>
+        <v>3461168</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.508117398001577</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4963267021018201</v>
+        <v>0.4960931608269317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5196948858927825</v>
+        <v>0.5206083966736311</v>
       </c>
     </row>
     <row r="23">
@@ -1935,19 +1935,19 @@
         <v>3270190</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3193219</v>
+        <v>3187146</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3348578</v>
+        <v>3350131</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4918826019984231</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4803051141072176</v>
+        <v>0.4793916033263688</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5036732978981798</v>
+        <v>0.5039068391730683</v>
       </c>
     </row>
     <row r="24">
@@ -2307,19 +2307,19 @@
         <v>314454</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>286446</v>
+        <v>281203</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>345248</v>
+        <v>341601</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4183435974121893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3810816789534168</v>
+        <v>0.3741067633725993</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4593105929662126</v>
+        <v>0.4544596647690037</v>
       </c>
     </row>
     <row r="5">
@@ -2362,19 +2362,19 @@
         <v>437211</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>406417</v>
+        <v>410064</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>465219</v>
+        <v>470462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5816564025878107</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5406894070337874</v>
+        <v>0.5455403352309963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6189183210465834</v>
+        <v>0.6258932366274006</v>
       </c>
     </row>
     <row r="6">
@@ -2492,19 +2492,19 @@
         <v>338011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>305941</v>
+        <v>311532</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>364986</v>
+        <v>368257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4466272467967526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4042521379636232</v>
+        <v>0.4116387899552344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4822696766836539</v>
+        <v>0.4865920613774526</v>
       </c>
     </row>
     <row r="8">
@@ -2547,19 +2547,19 @@
         <v>418797</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>391822</v>
+        <v>388551</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>450867</v>
+        <v>445276</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5533727532032473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5177303233163462</v>
+        <v>0.5134079386225474</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5957478620363768</v>
+        <v>0.5883612100447656</v>
       </c>
     </row>
     <row r="9">
@@ -2677,19 +2677,19 @@
         <v>260129</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>234015</v>
+        <v>231032</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288430</v>
+        <v>289770</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2924300056799204</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2630732267394665</v>
+        <v>0.2597200871808356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3242448340044558</v>
+        <v>0.3257517035251239</v>
       </c>
     </row>
     <row r="11">
@@ -2732,19 +2732,19 @@
         <v>629415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>601114</v>
+        <v>599774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>655529</v>
+        <v>658512</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7075699943200796</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6757551659955444</v>
+        <v>0.6742482964748767</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7369267732605337</v>
+        <v>0.7402799128191646</v>
       </c>
     </row>
     <row r="12">
@@ -2862,19 +2862,19 @@
         <v>766658</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>721956</v>
+        <v>722771</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>813336</v>
+        <v>809314</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3981257221465686</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3749121212385517</v>
+        <v>0.3753352224226823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.422365724484955</v>
+        <v>0.4202770464262431</v>
       </c>
     </row>
     <row r="14">
@@ -2917,19 +2917,19 @@
         <v>1159009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1112331</v>
+        <v>1116353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1203711</v>
+        <v>1202896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6018742778534315</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5776342755150445</v>
+        <v>0.5797229535737568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6250878787614483</v>
+        <v>0.6246647775773175</v>
       </c>
     </row>
     <row r="15">
@@ -3047,19 +3047,19 @@
         <v>761522</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>724897</v>
+        <v>723092</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>798899</v>
+        <v>797786</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5986250582574776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.569834388873562</v>
+        <v>0.5684155838381884</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6280072875571803</v>
+        <v>0.6271323815935821</v>
       </c>
     </row>
     <row r="17">
@@ -3102,19 +3102,19 @@
         <v>510596</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>473219</v>
+        <v>474332</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>547221</v>
+        <v>549026</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4013749417425224</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3719927124428197</v>
+        <v>0.3728676184064179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.430165611126438</v>
+        <v>0.4315844161618118</v>
       </c>
     </row>
     <row r="18">
@@ -3232,19 +3232,19 @@
         <v>1109351</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1080489</v>
+        <v>1078416</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1140937</v>
+        <v>1139606</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8060779744947323</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7851058823614909</v>
+        <v>0.7836001415494352</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8290290653489656</v>
+        <v>0.8280618022974844</v>
       </c>
     </row>
     <row r="20">
@@ -3287,19 +3287,19 @@
         <v>266882</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>235296</v>
+        <v>236627</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>295744</v>
+        <v>297817</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1939220255052677</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1709709346510343</v>
+        <v>0.1719381977025156</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.214894117638509</v>
+        <v>0.2163998584505647</v>
       </c>
     </row>
     <row r="21">
@@ -3417,19 +3417,19 @@
         <v>3550125</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3460872</v>
+        <v>3468476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3634528</v>
+        <v>3635588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5091949694788587</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4963934243014069</v>
+        <v>0.4974840837887128</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5213008786998499</v>
+        <v>0.5214529244826662</v>
       </c>
     </row>
     <row r="23">
@@ -3472,19 +3472,19 @@
         <v>3421910</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3337507</v>
+        <v>3336447</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3511163</v>
+        <v>3503559</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4908050305211413</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4786991213001502</v>
+        <v>0.4785470755173338</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5036065756985931</v>
+        <v>0.5025159162112872</v>
       </c>
     </row>
     <row r="24">
@@ -3844,19 +3844,19 @@
         <v>347055</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>320662</v>
+        <v>319220</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>377601</v>
+        <v>373648</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4471510469763511</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4131454808840424</v>
+        <v>0.4112875773102388</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4865065982268713</v>
+        <v>0.481414158141836</v>
       </c>
     </row>
     <row r="5">
@@ -3899,19 +3899,19 @@
         <v>429092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>398546</v>
+        <v>402499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>455485</v>
+        <v>456927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.552848953023649</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5134934017731286</v>
+        <v>0.518585841858164</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5868545191159575</v>
+        <v>0.5887124226897612</v>
       </c>
     </row>
     <row r="6">
@@ -4029,19 +4029,19 @@
         <v>372273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>344596</v>
+        <v>347579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>397243</v>
+        <v>404157</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4966953136634129</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4597682609706493</v>
+        <v>0.4637475126826786</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5300100627487612</v>
+        <v>0.5392349818501307</v>
       </c>
     </row>
     <row r="8">
@@ -4084,19 +4084,19 @@
         <v>377227</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>352257</v>
+        <v>345343</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>404904</v>
+        <v>401921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5033046863365871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4699899372512387</v>
+        <v>0.4607650181498694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5402317390293506</v>
+        <v>0.5362524873173218</v>
       </c>
     </row>
     <row r="9">
@@ -4214,19 +4214,19 @@
         <v>166123</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>145415</v>
+        <v>145308</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192947</v>
+        <v>189235</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.241444756740791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2113478719850044</v>
+        <v>0.2111928468790669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2804316786945469</v>
+        <v>0.275036903840593</v>
       </c>
     </row>
     <row r="11">
@@ -4269,19 +4269,19 @@
         <v>521913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>495089</v>
+        <v>498801</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542621</v>
+        <v>542728</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.758555243259209</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7195683213054531</v>
+        <v>0.7249630961594071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7886521280149958</v>
+        <v>0.7888071531209332</v>
       </c>
     </row>
     <row r="12">
@@ -4399,19 +4399,19 @@
         <v>825876</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>784720</v>
+        <v>783834</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>871808</v>
+        <v>873785</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4180561426223162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3972234102963441</v>
+        <v>0.3967745348364098</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4413070543548411</v>
+        <v>0.4423078941705225</v>
       </c>
     </row>
     <row r="14">
@@ -4454,19 +4454,19 @@
         <v>1149638</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1103706</v>
+        <v>1101729</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1190794</v>
+        <v>1191680</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5819438573776838</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5586929456451586</v>
+        <v>0.5576921058294778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6027765897036558</v>
+        <v>0.6032254651635902</v>
       </c>
     </row>
     <row r="15">
@@ -4584,19 +4584,19 @@
         <v>738244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>699916</v>
+        <v>701760</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>770704</v>
+        <v>775530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.543245979591394</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5150421221645763</v>
+        <v>0.516398531605745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5671320880727647</v>
+        <v>0.570683017387699</v>
       </c>
     </row>
     <row r="17">
@@ -4639,19 +4639,19 @@
         <v>620706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>588246</v>
+        <v>583420</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>659034</v>
+        <v>657190</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.456754020408606</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4328679119272353</v>
+        <v>0.4293169826123009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4849578778354237</v>
+        <v>0.4836014683942551</v>
       </c>
     </row>
     <row r="18">
@@ -4769,19 +4769,19 @@
         <v>1082025</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1050363</v>
+        <v>1050221</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1111623</v>
+        <v>1111708</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7902779439222966</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7671533694819428</v>
+        <v>0.7670494328917014</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8118954233358263</v>
+        <v>0.8119572465407611</v>
       </c>
     </row>
     <row r="20">
@@ -4824,19 +4824,19 @@
         <v>287145</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>257547</v>
+        <v>257462</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>318807</v>
+        <v>318949</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2097220560777034</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1881045766641738</v>
+        <v>0.1880427534592383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2328466305180572</v>
+        <v>0.2329505671082985</v>
       </c>
     </row>
     <row r="21">
@@ -4954,19 +4954,19 @@
         <v>3531596</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3446913</v>
+        <v>3441789</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3614163</v>
+        <v>3612153</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5105440936838836</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4983018759739299</v>
+        <v>0.4975612143691677</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5224804025327787</v>
+        <v>0.5221897467361518</v>
       </c>
     </row>
     <row r="23">
@@ -5009,19 +5009,19 @@
         <v>3385722</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3303155</v>
+        <v>3305165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3470405</v>
+        <v>3475529</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4894559063161164</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4775195974672215</v>
+        <v>0.4778102532638482</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5016981240260701</v>
+        <v>0.5024387856308323</v>
       </c>
     </row>
     <row r="24">
@@ -5381,19 +5381,19 @@
         <v>488411</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>455693</v>
+        <v>456999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>517267</v>
+        <v>520615</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.470064660716687</v>
+        <v>0.4700646607166869</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4385760641242342</v>
+        <v>0.4398325410355618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4978370306065714</v>
+        <v>0.5010591837943585</v>
       </c>
     </row>
     <row r="5">
@@ -5436,19 +5436,19 @@
         <v>550618</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>521762</v>
+        <v>518414</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>583336</v>
+        <v>582030</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5299353392833132</v>
+        <v>0.529935339283313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5021629693934285</v>
+        <v>0.4989408162056411</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.561423935875766</v>
+        <v>0.5601674589644379</v>
       </c>
     </row>
     <row r="6">
@@ -5566,19 +5566,19 @@
         <v>423143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>396131</v>
+        <v>394575</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>452291</v>
+        <v>450331</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4668621606714194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4370589165884808</v>
+        <v>0.4353431224640644</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4990219542217247</v>
+        <v>0.4968593188529533</v>
       </c>
     </row>
     <row r="8">
@@ -5621,19 +5621,19 @@
         <v>483212</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>454064</v>
+        <v>456024</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>510224</v>
+        <v>511780</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5331378393285806</v>
+        <v>0.5331378393285807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5009780457782752</v>
+        <v>0.5031406811470467</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5629410834115192</v>
+        <v>0.5646568775359355</v>
       </c>
     </row>
     <row r="9">
@@ -5751,19 +5751,19 @@
         <v>187497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>167856</v>
+        <v>166786</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209635</v>
+        <v>209361</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2844708310063019</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2546716921839532</v>
+        <v>0.2530470366465973</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3180586077208815</v>
+        <v>0.3176427051444853</v>
       </c>
     </row>
     <row r="11">
@@ -5806,19 +5806,19 @@
         <v>471612</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>449474</v>
+        <v>449748</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491253</v>
+        <v>492323</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7155291689936981</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6819413922791187</v>
+        <v>0.6823572948555149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7453283078160468</v>
+        <v>0.7469529633534027</v>
       </c>
     </row>
     <row r="12">
@@ -5936,19 +5936,19 @@
         <v>861211</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>817769</v>
+        <v>816721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>901250</v>
+        <v>903539</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4321063711417262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4103095501331888</v>
+        <v>0.409783926434484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.452195324492755</v>
+        <v>0.4533438433579317</v>
       </c>
     </row>
     <row r="14">
@@ -5991,19 +5991,19 @@
         <v>1131843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1091804</v>
+        <v>1089515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1175285</v>
+        <v>1176333</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5678936288582738</v>
+        <v>0.5678936288582739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5478046755072448</v>
+        <v>0.5466561566420681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5896904498668112</v>
+        <v>0.5902160735655152</v>
       </c>
     </row>
     <row r="15">
@@ -6121,19 +6121,19 @@
         <v>830850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>790253</v>
+        <v>796355</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>866209</v>
+        <v>866796</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5939676394446204</v>
+        <v>0.5939676394446202</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5649448513889309</v>
+        <v>0.569307576540047</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6192453901006715</v>
+        <v>0.619665013983128</v>
       </c>
     </row>
     <row r="17">
@@ -6176,19 +6176,19 @@
         <v>567964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>532605</v>
+        <v>532018</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>608561</v>
+        <v>602459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4060323605553797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3807546098993286</v>
+        <v>0.3803349860168721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4350551486110691</v>
+        <v>0.4306924234599529</v>
       </c>
     </row>
     <row r="18">
@@ -6306,19 +6306,19 @@
         <v>844281</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>801840</v>
+        <v>802771</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>887247</v>
+        <v>884110</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.780651103292836</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7414083768494035</v>
+        <v>0.7422690672891086</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8203790653337625</v>
+        <v>0.8174782109358513</v>
       </c>
     </row>
     <row r="20">
@@ -6361,19 +6361,19 @@
         <v>237228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>194262</v>
+        <v>197399</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>279669</v>
+        <v>278738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2193488967071641</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1796209346662375</v>
+        <v>0.1825217890641488</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2585916231505964</v>
+        <v>0.2577309327108914</v>
       </c>
     </row>
     <row r="21">
@@ -6491,19 +6491,19 @@
         <v>3635393</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3556390</v>
+        <v>3553507</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3722471</v>
+        <v>3723078</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.513628196504845</v>
+        <v>0.5136281965048451</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5024661546382035</v>
+        <v>0.5020589231462266</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.525930976297645</v>
+        <v>0.5260168585524216</v>
       </c>
     </row>
     <row r="23">
@@ -6546,19 +6546,19 @@
         <v>3442476</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3355398</v>
+        <v>3354791</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3521479</v>
+        <v>3524362</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4863718034951548</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.474069023702355</v>
+        <v>0.473983141447578</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4975338453617965</v>
+        <v>0.4979410768537734</v>
       </c>
     </row>
     <row r="24">
